--- a/BackTest/2020-01-11 BackTest RNT.xlsx
+++ b/BackTest/2020-01-11 BackTest RNT.xlsx
@@ -451,17 +451,13 @@
         <v>10.4425</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.97</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>10.45250000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>10.46366666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>10.47316666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>10.48666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>10.49933333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>10.513</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>10.53733333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>10.56416666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -840,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -881,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -922,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1086,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1209,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1332,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1373,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1414,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1455,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1534,19 +1364,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>1.072484047402006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1575,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1680,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1715,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2587,14 +2411,20 @@
         <v>11.40983333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2622,14 +2452,20 @@
         <v>11.41433333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2657,14 +2493,20 @@
         <v>11.41583333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.06</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2692,14 +2534,20 @@
         <v>11.41916666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.06</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2734,7 +2582,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2769,7 +2621,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2804,7 +2660,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2839,7 +2699,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2874,7 +2738,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2909,7 +2777,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2812,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +2855,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3014,7 +2894,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3049,7 +2933,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3084,7 +2972,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3119,7 +3011,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3154,7 +3050,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3189,7 +3089,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3224,7 +3128,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3259,7 +3167,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3294,7 +3206,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3329,7 +3245,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3364,7 +3284,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3399,7 +3323,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3434,7 +3362,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3469,7 +3401,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3504,7 +3440,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3539,7 +3479,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3574,7 +3518,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3609,7 +3557,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3644,7 +3596,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3679,7 +3635,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +3674,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3749,7 +3713,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3784,7 +3752,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3819,7 +3791,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3830,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3889,7 +3869,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3924,7 +3908,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3959,7 +3947,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3994,7 +3986,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4029,7 +4025,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4064,7 +4064,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4099,7 +4103,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4142,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4169,7 +4181,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4204,7 +4220,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4239,7 +4259,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4298,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4309,7 +4337,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4344,7 +4376,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4379,7 +4415,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4414,7 +4454,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4449,7 +4493,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4484,7 +4532,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4519,7 +4571,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4554,7 +4610,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4589,7 +4649,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4688,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4659,7 +4727,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +4766,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4729,7 +4805,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4844,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4883,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4834,7 +4922,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +4961,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4904,7 +5000,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +5039,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +5078,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5117,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5156,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +5195,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5114,7 +5234,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5149,7 +5273,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5184,7 +5312,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5219,7 +5351,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +5390,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5429,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +5468,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5359,7 +5507,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5394,7 +5546,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5585,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5464,7 +5624,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5663,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5534,7 +5702,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5569,7 +5741,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5604,7 +5780,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5639,7 +5819,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +5858,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +5897,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5744,7 +5936,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5779,7 +5975,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5814,7 +6014,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5849,7 +6053,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5884,7 +6092,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5919,7 +6131,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +6170,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5989,7 +6209,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6024,7 +6248,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6059,7 +6287,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6094,7 +6326,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6129,7 +6365,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6404,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6199,7 +6443,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6482,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6269,7 +6521,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6304,7 +6560,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6339,7 +6599,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +6631,20 @@
         <v>11.76299999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6409,7 +6679,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6718,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +6757,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6514,7 +6796,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +6835,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +6874,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6619,7 +6913,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6952,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6689,7 +6991,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6724,7 +7030,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6759,7 +7069,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6794,7 +7108,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +7147,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7186,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +7225,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6934,7 +7264,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6969,7 +7303,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7004,7 +7342,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7039,7 +7381,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7074,7 +7420,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +7459,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7144,7 +7498,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7179,7 +7537,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7214,7 +7576,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7249,7 +7615,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7654,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7693,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7354,7 +7732,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7389,7 +7771,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7424,7 +7810,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7459,7 +7849,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7494,7 +7888,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7927,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7966,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +8005,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7634,7 +8044,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7669,7 +8083,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7704,7 +8122,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7739,7 +8161,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7774,7 +8200,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8239,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7844,7 +8278,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7879,7 +8317,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +8356,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7949,7 +8395,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +8434,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +8473,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8512,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8089,7 +8551,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8124,7 +8590,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8159,7 +8629,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8668,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8229,7 +8707,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8264,7 +8746,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8299,7 +8785,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8334,7 +8824,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8369,7 +8863,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +8902,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8941,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8980,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8509,7 +9019,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8544,7 +9058,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8579,7 +9097,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8614,7 +9136,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8649,7 +9175,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8684,7 +9214,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +9253,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +9292,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8789,7 +9331,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8824,7 +9370,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8859,7 +9409,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8894,7 +9448,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8925,11 +9483,15 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8960,11 +9522,15 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8999,7 +9565,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +9604,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9069,7 +9643,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9104,7 +9682,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9139,7 +9721,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +9760,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +9799,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +9838,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9279,7 +9877,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9314,7 +9916,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +9955,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9384,7 +9994,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9419,7 +10033,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9454,7 +10072,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9489,7 +10111,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9524,7 +10150,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9559,7 +10189,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9594,7 +10228,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10267,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9664,7 +10306,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9699,7 +10345,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9734,7 +10384,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9769,7 +10423,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9804,7 +10462,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9839,7 +10501,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10540,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9909,7 +10579,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9944,7 +10618,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9979,7 +10657,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10014,7 +10696,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10049,7 +10735,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10084,7 +10774,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10813,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10852,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10189,7 +10891,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10224,7 +10930,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10259,7 +10969,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10294,7 +11008,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +11047,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +11086,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10399,7 +11125,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10434,7 +11164,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10469,7 +11203,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +11242,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10539,7 +11281,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10574,7 +11320,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10609,7 +11359,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10644,7 +11398,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10679,7 +11437,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10714,7 +11476,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +11515,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11554,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10819,7 +11593,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10854,7 +11632,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10889,7 +11671,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10924,7 +11710,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10959,7 +11749,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10994,7 +11788,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11827,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11064,7 +11866,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11099,7 +11905,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11134,7 +11944,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11169,7 +11983,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +12022,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11239,7 +12061,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12100,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +12139,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +12178,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +12217,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11414,7 +12256,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11449,7 +12295,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11484,7 +12334,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12373,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11554,7 +12412,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11589,7 +12451,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +12490,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +12529,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11694,7 +12568,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11729,7 +12607,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11764,7 +12646,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +12685,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11834,7 +12724,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11869,7 +12763,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12802,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12841,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11974,7 +12880,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12009,7 +12919,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12044,7 +12958,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12079,7 +12997,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12114,7 +13036,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12149,7 +13075,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12184,7 +13114,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12219,7 +13153,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12254,7 +13192,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12289,7 +13231,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12324,7 +13270,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +13309,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12394,7 +13348,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +13387,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12464,7 +13426,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +13465,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12534,7 +13504,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12569,7 +13543,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12604,7 +13582,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +13621,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +13660,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12709,7 +13699,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12744,7 +13738,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +13777,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13816,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12849,7 +13855,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12884,7 +13894,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +13933,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12954,7 +13972,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12989,7 +14011,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13024,7 +14050,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13059,7 +14089,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +14128,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +14167,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +14206,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13199,7 +14245,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13234,7 +14284,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +14323,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13304,7 +14362,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13339,7 +14401,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13374,7 +14440,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13409,7 +14479,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13444,7 +14518,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13479,7 +14557,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +14596,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13549,7 +14635,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +14674,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13619,7 +14713,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +14752,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13689,7 +14791,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13724,7 +14830,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13759,7 +14869,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +14908,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13829,7 +14947,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13864,7 +14986,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13899,7 +15025,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13934,7 +15064,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +15103,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14004,7 +15142,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14039,7 +15181,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +15220,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14109,7 +15259,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14144,7 +15298,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14179,7 +15337,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14214,7 +15376,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +15415,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14284,7 +15454,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +15493,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14354,7 +15532,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14389,7 +15571,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14424,7 +15610,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14459,7 +15649,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14494,7 +15688,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +15727,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14564,7 +15766,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14599,7 +15805,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14627,14 +15837,20 @@
         <v>11.75066666666667</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14662,14 +15878,20 @@
         <v>11.73483333333333</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>11.08</v>
+      </c>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest RNT.xlsx
+++ b/BackTest/2020-01-11 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2114530.6184</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,173 +484,171 @@
         <v>-2144291.9828</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13470</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2130821.9828</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20418.6736</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2151240.6564</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7480</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2143760.6564</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2193760.6564</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13470</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-2130821.9828</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20418.6736</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-2151240.6564</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7480</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-2143760.6564</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2193760.6564</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,12 +677,14 @@
         <v>-2193760.6564</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10.2</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -718,12 +718,14 @@
         <v>-2193710.6564</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>10.2</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -757,12 +759,14 @@
         <v>-2204710.6564</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>10.34</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -796,12 +800,14 @@
         <v>-2203099.7371</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>10.2</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -835,12 +841,14 @@
         <v>-2203099.7371</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>10.3</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -874,12 +882,14 @@
         <v>-2224500.160199999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10.3</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,12 +923,14 @@
         <v>-2224450.160199999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10.16</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -952,12 +964,14 @@
         <v>-2239041.599899999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>10.3</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -991,12 +1005,14 @@
         <v>-2244051.574899999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>10.28</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1030,12 +1046,14 @@
         <v>-2326528.4671</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10.14</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1069,12 +1087,14 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>10.02</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1108,12 +1128,14 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10.03</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1147,12 +1169,14 @@
         <v>-2243029.4364</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>10.03</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,12 +1210,14 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>10.04</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1225,12 +1251,14 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>10.1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,12 +1292,14 @@
         <v>-2194347.2944</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>10.1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,12 +1333,14 @@
         <v>-2341804.274499999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>10.29</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,12 +1374,14 @@
         <v>-2336224.274499999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>10.19</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,12 +1415,14 @@
         <v>-2432447.05596923</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>10.3</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,12 +1456,14 @@
         <v>-2648879.05656923</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>10.29</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,12 +1497,14 @@
         <v>-2646930.93696923</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>10.25</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,12 +1538,14 @@
         <v>-2644439.63996923</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>10.26</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1537,12 +1579,14 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>10.4</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,12 +1620,14 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>10.59</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,12 +1661,14 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>10.59</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1654,12 +1702,14 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>10.59</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1693,12 +1743,14 @@
         <v>-2647237.46686923</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>10.59</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,12 +1784,14 @@
         <v>-2664664.37916923</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>10.48</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,12 +1825,14 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>10.4</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,12 +1866,14 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>10.48</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1849,12 +1907,14 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>10.48</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,12 +1948,14 @@
         <v>-2671012.27566923</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>10.48</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1927,12 +1989,14 @@
         <v>-2670963.83016923</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>10.46</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,12 +2030,14 @@
         <v>-2670963.83016923</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>10.48</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,10 +2071,14 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,10 +2112,14 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,10 +2153,14 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,10 +2194,14 @@
         <v>-2452334.833159307</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="J45" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,10 +2235,14 @@
         <v>-2475039.042659307</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2193,7 +2279,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,7 +2318,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2267,7 +2357,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2304,7 +2396,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,7 +2435,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,7 +2474,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,7 +2513,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,7 +2552,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2489,7 +2591,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,7 +2630,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,7 +2669,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,7 +2708,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2637,7 +2747,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,7 +2786,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,7 +2825,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,7 +2864,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,7 +2903,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,7 +2942,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,7 +2981,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,7 +3020,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,7 +3059,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,7 +3098,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,7 +3137,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,7 +3176,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,7 +3215,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,7 +3254,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,7 +3293,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,7 +3332,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,7 +3371,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,7 +3410,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3303,7 +3449,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,7 +3527,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,7 +3566,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,512 +3602,608 @@
         <v>-1117704.494982522</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10.26</v>
+      </c>
       <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F82" t="n">
+        <v>153796.4327</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1271500.927682522</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F83" t="n">
+        <v>65705.8835</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1337206.811182522</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F84" t="n">
+        <v>582744.8442879417</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-754461.9668945801</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>466669.7884211726</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-287792.1784734075</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>130717.3621993237</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-418509.5406727312</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>73579.14380000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-492088.6844727312</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D88" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F88" t="n">
+        <v>73178.1109</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-565266.7953727312</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D89" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F89" t="n">
+        <v>225700.3484687657</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-565266.7953727312</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>119483.041</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-684749.8363727311</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>140050.8023</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-824800.6386727311</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F92" t="n">
+        <v>422727.3062</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1247527.944872731</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F93" t="n">
+        <v>46220.0447</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1201307.900172731</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F94" t="n">
+        <v>256609.8117</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1457917.711872731</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F95" t="n">
+        <v>582694.0224</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-2040611.734272731</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F96" t="n">
+        <v>29469.797</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2070081.531272731</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="F82" t="n">
-        <v>153796.4327</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1271500.927682522</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D83" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F83" t="n">
-        <v>65705.8835</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1337206.811182522</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F84" t="n">
-        <v>582744.8442879417</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-754461.9668945801</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C85" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="D85" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>466669.7884211726</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-287792.1784734075</v>
-      </c>
-      <c r="H85" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>130717.3621993237</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-418509.5406727312</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>73579.14380000001</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-492088.6844727312</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="D88" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F88" t="n">
-        <v>73178.1109</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-565266.7953727312</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="D89" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F89" t="n">
-        <v>225700.3484687657</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-565266.7953727312</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>119483.041</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-684749.8363727311</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>140050.8023</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-824800.6386727311</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="F92" t="n">
-        <v>422727.3062</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1247527.944872731</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D93" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F93" t="n">
-        <v>46220.0447</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1201307.900172731</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="C94" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="F94" t="n">
-        <v>256609.8117</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1457917.711872731</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E95" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="F95" t="n">
-        <v>582694.0224</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-2040611.734272731</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F96" t="n">
-        <v>29469.797</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2070081.531272731</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>1.098313840155946</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.014691478942213</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3978,7 +4228,7 @@
         <v>-2140274.059372731</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4011,7 +4261,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4044,7 +4294,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4209,7 +4459,7 @@
         <v>-2053075.421998235</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4275,7 +4525,7 @@
         <v>-2154224.162598235</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4308,7 +4558,7 @@
         <v>-2016706.575298235</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4341,7 +4591,7 @@
         <v>-2127884.847798235</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4605,7 +4855,7 @@
         <v>-2351273.656398235</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4935,7 +5185,7 @@
         <v>-2065160.541212128</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4968,7 +5218,7 @@
         <v>-2412376.923112128</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5001,7 +5251,7 @@
         <v>-2468207.330003568</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5034,7 +5284,7 @@
         <v>-2321464.814203568</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5067,7 +5317,7 @@
         <v>-3219369.379303568</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5100,7 +5350,7 @@
         <v>-3578232.768398173</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5133,7 +5383,7 @@
         <v>-3523104.358698173</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5199,7 +5449,7 @@
         <v>-3464445.640272447</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5265,7 +5515,7 @@
         <v>-3176873.030372447</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5562,7 +5812,7 @@
         <v>-2239727.496861921</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5595,7 +5845,7 @@
         <v>-2461955.283961921</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5628,7 +5878,7 @@
         <v>-2459141.981061921</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5661,7 +5911,7 @@
         <v>-3121324.515861921</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5694,7 +5944,7 @@
         <v>-2916739.275461921</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5727,7 +5977,7 @@
         <v>-2970575.523261921</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5760,7 +6010,7 @@
         <v>-2827744.518482703</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5793,7 +6043,7 @@
         <v>-2819305.699882703</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5826,7 +6076,7 @@
         <v>-2819305.699882703</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5859,7 +6109,7 @@
         <v>-2803663.781182704</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5892,7 +6142,7 @@
         <v>-3024568.978411917</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5925,7 +6175,7 @@
         <v>-2957480.150511917</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5958,7 +6208,7 @@
         <v>-2957480.150511917</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5991,7 +6241,7 @@
         <v>-2240822.560654767</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6222,7 +6472,7 @@
         <v>-2553626.618154767</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6288,7 +6538,7 @@
         <v>-2334695.341054767</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6321,7 +6571,7 @@
         <v>-2386473.300654767</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6354,7 +6604,7 @@
         <v>-2449549.131954767</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6387,7 +6637,7 @@
         <v>-2789147.974754767</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6420,7 +6670,7 @@
         <v>-2744794.860254767</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6453,7 +6703,7 @@
         <v>-2744838.860254767</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6486,7 +6736,7 @@
         <v>-2744838.860254767</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6519,7 +6769,7 @@
         <v>-2750951.251154767</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6552,7 +6802,7 @@
         <v>-2876277.224554767</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6585,7 +6835,7 @@
         <v>-2859054.318854767</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6618,7 +6868,7 @@
         <v>-3031632.464954767</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6651,7 +6901,7 @@
         <v>-2927016.246954767</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6684,7 +6934,7 @@
         <v>-2951365.463354767</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6717,7 +6967,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6750,7 +7000,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6783,7 +7033,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6816,7 +7066,7 @@
         <v>-2967008.230954767</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6849,7 +7099,7 @@
         <v>-2962619.421954767</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6882,7 +7132,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6915,7 +7165,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6948,7 +7198,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6981,7 +7231,7 @@
         <v>-2965307.745954767</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7014,7 +7264,7 @@
         <v>-3026113.174154767</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7047,7 +7297,7 @@
         <v>-3019097.963054767</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7080,7 +7330,7 @@
         <v>-3097876.281754768</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7113,7 +7363,7 @@
         <v>-3275435.225154768</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7146,7 +7396,7 @@
         <v>-3369626.393154768</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7179,7 +7429,7 @@
         <v>-3422202.805954768</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7212,7 +7462,7 @@
         <v>-3677294.768754768</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7245,7 +7495,7 @@
         <v>-4191136.091154768</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7278,7 +7528,7 @@
         <v>-4169744.473354768</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7311,7 +7561,7 @@
         <v>-4176032.580754768</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7344,7 +7594,7 @@
         <v>-4124355.862654767</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7377,7 +7627,7 @@
         <v>-4060495.049116601</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7410,7 +7660,7 @@
         <v>-4060495.049116601</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7443,7 +7693,7 @@
         <v>-4100319.094416601</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7476,7 +7726,7 @@
         <v>-4065116.069616601</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7509,7 +7759,7 @@
         <v>-4145602.668616601</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7542,7 +7792,7 @@
         <v>-4848584.991816601</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7575,7 +7825,7 @@
         <v>-5132837.1817166</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7608,7 +7858,7 @@
         <v>-5091623.909616601</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7641,7 +7891,7 @@
         <v>-5091623.909616601</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7674,7 +7924,7 @@
         <v>-5106590.799816601</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -9918,7 +10168,7 @@
         <v>-6594495.736415545</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9951,7 +10201,7 @@
         <v>-6577467.066415546</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9984,7 +10234,7 @@
         <v>-6559169.428715546</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10380,7 +10630,7 @@
         <v>-5872803.10719111</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10446,7 +10696,7 @@
         <v>-5669395.46859111</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10479,7 +10729,7 @@
         <v>-5665104.82539111</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10512,7 +10762,7 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10545,7 +10795,7 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10578,7 +10828,7 @@
         <v>-6086463.57939111</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10611,7 +10861,7 @@
         <v>-6086463.57939111</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10644,7 +10894,7 @@
         <v>-5878399.016591109</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10677,7 +10927,7 @@
         <v>-6024775.056211109</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10710,7 +10960,7 @@
         <v>-6052018.439911109</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10743,7 +10993,7 @@
         <v>-5893126.709111109</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10776,7 +11026,7 @@
         <v>-6075962.345211109</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10809,7 +11059,7 @@
         <v>-6217418.997111109</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10842,7 +11092,7 @@
         <v>-6226945.926611109</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10875,7 +11125,7 @@
         <v>-6525003.057011109</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10908,7 +11158,7 @@
         <v>-6364365.842911108</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -13416,7 +13666,7 @@
         <v>-3809828.077779604</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14604,7 +14854,7 @@
         <v>-4138464.910922918</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16364,6 +16614,6 @@
       <c r="M472" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest RNT.xlsx
+++ b/BackTest/2020-01-11 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-2130821.9828</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-2151240.6564</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-2143760.6564</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,19 +616,11 @@
         <v>-2193760.6564</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,19 +649,11 @@
         <v>-2193760.6564</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,19 +682,11 @@
         <v>-2193710.6564</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,19 +715,11 @@
         <v>-2204710.6564</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-2203099.7371</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>-2203099.7371</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>-2224500.160199999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>-2224450.160199999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>-2239041.599899999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>-2244051.574899999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>-2326528.4671</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1087,19 +979,11 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1128,19 +1012,11 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,19 +1045,11 @@
         <v>-2243029.4364</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1210,19 +1078,11 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1251,19 +1111,11 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1292,19 +1144,11 @@
         <v>-2194347.2944</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1333,19 +1177,11 @@
         <v>-2341804.274499999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1374,19 +1210,11 @@
         <v>-2336224.274499999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,19 +1243,11 @@
         <v>-2432447.05596923</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1456,19 +1276,11 @@
         <v>-2648879.05656923</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1497,19 +1309,11 @@
         <v>-2646930.93696923</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1538,19 +1342,11 @@
         <v>-2644439.63996923</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1579,19 +1375,11 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1408,11 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1441,11 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1702,19 +1474,11 @@
         <v>-2636797.63996923</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1743,19 +1507,11 @@
         <v>-2647237.46686923</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,19 +1540,11 @@
         <v>-2664664.37916923</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1825,19 +1573,11 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1866,19 +1606,11 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1907,19 +1639,11 @@
         <v>-2664558.92466923</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1948,19 +1672,11 @@
         <v>-2671012.27566923</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1989,19 +1705,11 @@
         <v>-2670963.83016923</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J40" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2030,19 +1738,11 @@
         <v>-2670963.83016923</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J41" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2071,19 +1771,11 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J42" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2112,19 +1804,11 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2153,19 +1837,11 @@
         <v>-2670913.83016923</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2194,19 +1870,11 @@
         <v>-2452334.833159307</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="J45" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2235,19 +1903,11 @@
         <v>-2475039.042659307</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2318,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2357,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2864,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2903,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2942,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3173,17 +2695,11 @@
         <v>-1080025.448440345</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3212,17 +2728,11 @@
         <v>-1859170.517540345</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3251,17 +2761,11 @@
         <v>-1756644.910440345</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3290,17 +2794,11 @@
         <v>-1811108.936340345</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3446,17 +2926,11 @@
         <v>-1405198.875461881</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3485,17 +2959,11 @@
         <v>-603438.915710668</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3524,17 +2992,11 @@
         <v>-969170.1730825217</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3563,17 +3025,11 @@
         <v>-917524.5532825217</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3602,17 +3058,11 @@
         <v>-1117704.494982522</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3641,17 +3091,11 @@
         <v>-1271500.927682522</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3680,17 +3124,11 @@
         <v>-1337206.811182522</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3719,17 +3157,11 @@
         <v>-754461.9668945801</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3758,17 +3190,11 @@
         <v>-287792.1784734075</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3878,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3992,17 +3388,11 @@
         <v>-824800.6386727311</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4031,17 +3421,11 @@
         <v>-1247527.944872731</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4070,17 +3454,11 @@
         <v>-1201307.900172731</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4109,17 +3487,11 @@
         <v>-1457917.711872731</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4148,17 +3520,11 @@
         <v>-2040611.734272731</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4190,20 +3556,12 @@
         <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1.098313840155946</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.014691478942213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4327,7 +3685,7 @@
         <v>-2058070.909398235</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4360,7 +3718,7 @@
         <v>-2088247.280798235</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4393,7 +3751,7 @@
         <v>-2001419.794398235</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4426,7 +3784,7 @@
         <v>-2181955.030498235</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4492,7 +3850,7 @@
         <v>-2050979.421998235</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4657,7 +4015,7 @@
         <v>-2215554.320898235</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4855,7 +4213,7 @@
         <v>-2351273.656398235</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5515,7 +4873,7 @@
         <v>-3176873.030372447</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5812,7 +5170,7 @@
         <v>-2239727.496861921</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5845,7 +5203,7 @@
         <v>-2461955.283961921</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5878,7 +5236,7 @@
         <v>-2459141.981061921</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5911,7 +5269,7 @@
         <v>-3121324.515861921</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5944,7 +5302,7 @@
         <v>-2916739.275461921</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5977,7 +5335,7 @@
         <v>-2970575.523261921</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6010,7 +5368,7 @@
         <v>-2827744.518482703</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6043,7 +5401,7 @@
         <v>-2819305.699882703</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6076,7 +5434,7 @@
         <v>-2819305.699882703</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6142,7 +5500,7 @@
         <v>-3024568.978411917</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6175,7 +5533,7 @@
         <v>-2957480.150511917</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6472,7 +5830,7 @@
         <v>-2553626.618154767</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6538,7 +5896,7 @@
         <v>-2334695.341054767</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6571,7 +5929,7 @@
         <v>-2386473.300654767</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6604,7 +5962,7 @@
         <v>-2449549.131954767</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6637,7 +5995,7 @@
         <v>-2789147.974754767</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6670,7 +6028,7 @@
         <v>-2744794.860254767</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6703,7 +6061,7 @@
         <v>-2744838.860254767</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6736,7 +6094,7 @@
         <v>-2744838.860254767</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6769,7 +6127,7 @@
         <v>-2750951.251154767</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6802,7 +6160,7 @@
         <v>-2876277.224554767</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6835,7 +6193,7 @@
         <v>-2859054.318854767</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6868,7 +6226,7 @@
         <v>-3031632.464954767</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6901,7 +6259,7 @@
         <v>-2927016.246954767</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6934,7 +6292,7 @@
         <v>-2951365.463354767</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6967,7 +6325,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7000,7 +6358,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7033,7 +6391,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7066,7 +6424,7 @@
         <v>-2967008.230954767</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7099,7 +6457,7 @@
         <v>-2962619.421954767</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7132,7 +6490,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7165,7 +6523,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7198,7 +6556,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7231,7 +6589,7 @@
         <v>-2965307.745954767</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7264,7 +6622,7 @@
         <v>-3026113.174154767</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7297,7 +6655,7 @@
         <v>-3019097.963054767</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7330,7 +6688,7 @@
         <v>-3097876.281754768</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7363,7 +6721,7 @@
         <v>-3275435.225154768</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7396,7 +6754,7 @@
         <v>-3369626.393154768</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7429,7 +6787,7 @@
         <v>-3422202.805954768</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7462,7 +6820,7 @@
         <v>-3677294.768754768</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7495,7 +6853,7 @@
         <v>-4191136.091154768</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7528,7 +6886,7 @@
         <v>-4169744.473354768</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7561,7 +6919,7 @@
         <v>-4176032.580754768</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7594,7 +6952,7 @@
         <v>-4124355.862654767</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7627,7 +6985,7 @@
         <v>-4060495.049116601</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7660,7 +7018,7 @@
         <v>-4060495.049116601</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7693,7 +7051,7 @@
         <v>-4100319.094416601</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7726,7 +7084,7 @@
         <v>-4065116.069616601</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7759,7 +7117,7 @@
         <v>-4145602.668616601</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7792,7 +7150,7 @@
         <v>-4848584.991816601</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7825,7 +7183,7 @@
         <v>-5132837.1817166</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7858,7 +7216,7 @@
         <v>-5091623.909616601</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7891,7 +7249,7 @@
         <v>-5091623.909616601</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7924,7 +7282,7 @@
         <v>-5106590.799816601</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -12643,10 +12001,14 @@
         <v>-7031171.234037461</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J352" t="n">
+        <v>11.53</v>
+      </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12679,8 +12041,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12712,8 +12080,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12745,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12778,8 +12158,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12811,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12844,8 +12236,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12877,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +12311,19 @@
         <v>-6233543.296537461</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12943,8 +12355,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12976,8 +12394,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13009,8 +12433,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13042,8 +12472,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13075,8 +12511,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13108,8 +12550,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13141,8 +12589,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13174,8 +12628,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13207,8 +12667,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13240,8 +12706,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13273,8 +12745,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13306,8 +12784,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13339,8 +12823,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13372,8 +12862,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13405,8 +12901,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13438,8 +12940,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13471,8 +12979,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13504,8 +13018,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13537,8 +13057,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13570,8 +13096,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13603,8 +13135,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13636,8 +13174,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13669,8 +13213,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13702,8 +13252,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13735,8 +13291,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13768,8 +13330,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13801,8 +13369,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13834,8 +13408,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13867,8 +13447,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13900,8 +13486,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13933,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13966,8 +13564,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13999,8 +13603,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14032,8 +13642,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14065,8 +13681,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14098,8 +13720,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14131,8 +13759,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14164,8 +13798,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14197,8 +13837,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14230,8 +13876,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14263,8 +13915,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14296,8 +13954,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14329,8 +13993,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14362,8 +14032,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14395,8 +14071,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14428,8 +14110,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14461,8 +14149,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14494,8 +14188,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14527,8 +14227,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14560,8 +14266,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14593,8 +14305,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14626,8 +14344,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14659,8 +14383,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14692,8 +14422,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14725,8 +14461,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14758,8 +14500,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14791,8 +14539,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14824,8 +14578,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14854,11 +14614,17 @@
         <v>-4138464.910922918</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14890,8 +14656,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14923,8 +14695,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14956,8 +14734,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14989,8 +14773,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15022,8 +14812,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15055,8 +14851,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15088,8 +14890,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15121,8 +14929,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15154,8 +14968,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15187,8 +15007,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15220,8 +15046,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15253,8 +15085,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15286,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15319,8 +15163,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15352,8 +15202,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15385,8 +15241,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15418,8 +15280,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15451,8 +15319,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15484,8 +15358,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15517,8 +15397,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15550,8 +15436,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15583,8 +15475,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15616,8 +15514,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15649,8 +15553,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15682,8 +15592,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +15631,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15748,8 +15670,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15781,8 +15709,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15814,8 +15748,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15847,8 +15787,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15880,8 +15826,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15913,8 +15865,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15946,8 +15904,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15979,8 +15943,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16012,8 +15982,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16045,8 +16021,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16078,8 +16060,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16111,8 +16099,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16144,8 +16138,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16174,11 +16174,19 @@
         <v>-5470810.985682668</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J459" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16207,11 +16215,19 @@
         <v>-5543988.594982668</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="J460" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16240,11 +16256,19 @@
         <v>-5543943.468582667</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J461" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16273,11 +16297,19 @@
         <v>-5354032.978482667</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J462" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16306,11 +16338,19 @@
         <v>-4756866.945682667</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J463" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16342,8 +16382,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16375,8 +16421,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16408,8 +16460,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16441,8 +16499,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16474,8 +16538,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16507,8 +16577,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16540,8 +16616,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16573,8 +16655,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16606,14 +16694,20 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
       <c r="M472" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest RNT.xlsx
+++ b/BackTest/2020-01-11 BackTest RNT.xlsx
@@ -2695,7 +2695,7 @@
         <v>-1080025.448440345</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1859170.517540345</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1756644.910440345</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1811108.936340345</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1405198.875461881</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-603438.915710668</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-969170.1730825217</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-917524.5532825217</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1117704.494982522</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1271500.927682522</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1337206.811182522</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-754461.9668945801</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-287792.1784734075</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-824800.6386727311</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1247527.944872731</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1201307.900172731</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1457917.711872731</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2040611.734272731</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2070081.531272731</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2140274.059372731</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2058070.909398235</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2088247.280798235</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2001419.794398235</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2181955.030498235</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2053075.421998235</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2050979.421998235</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2154224.162598235</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2016706.575298235</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2127884.847798235</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2215554.320898235</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2461955.283961921</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3121324.515861921</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2916739.275461921</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2803663.781182704</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-3024568.978411917</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2240822.560654767</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2240673.736154767</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2120522.241554767</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2181192.386854767</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2278918.028454767</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2615706.948154767</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2553626.618154767</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2342685.543354767</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2334695.341054767</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2386473.300654767</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2449549.131954767</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2789147.974754767</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2744794.860254767</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2876277.224554767</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2859054.318854767</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3031632.464954767</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2951365.463354767</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2967008.230954767</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2962619.421954767</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2965307.745954767</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3026113.174154767</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3019097.963054767</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3097876.281754768</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3275435.225154768</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8932,10 +8932,14 @@
         <v>-6137098.53933113</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J259" t="n">
+        <v>11.26</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
@@ -8965,11 +8969,19 @@
         <v>-6137598.53933113</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J260" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9010,19 @@
         <v>-6196560.83153113</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="J261" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9051,19 @@
         <v>-6196516.77863113</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="J262" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9092,19 @@
         <v>-6196516.77863113</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J263" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9133,19 @@
         <v>-6183974.29623113</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J264" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9174,19 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="J265" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9215,19 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J266" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9256,19 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J267" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9297,19 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J268" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9338,19 @@
         <v>-6159438.36303113</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J269" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9379,19 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="J270" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9420,19 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J271" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9461,19 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J272" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9502,19 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J273" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9543,19 @@
         <v>-6087325.82363113</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J274" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9584,19 @@
         <v>-6575979.813615546</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J275" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9625,19 @@
         <v>-6594495.736415545</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J276" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9666,19 @@
         <v>-6594495.736415545</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="J277" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9707,19 @@
         <v>-6577467.066415546</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="J278" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9748,19 @@
         <v>-6559169.428715546</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J279" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9789,19 @@
         <v>-6580935.760515545</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J280" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9830,19 @@
         <v>-6602740.099015545</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="J281" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9871,19 @@
         <v>-6602740.099015545</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="J282" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9912,19 @@
         <v>-6663109.420315545</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="J283" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9953,19 @@
         <v>-6663065.420315545</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J284" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9994,19 @@
         <v>-6692902.079315545</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="J285" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10035,19 @@
         <v>-6713516.760415545</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J286" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10076,19 @@
         <v>-6713466.760415545</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J287" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10117,19 @@
         <v>-6761776.441815545</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="J288" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10158,19 @@
         <v>-5877143.75039111</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J289" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10199,19 @@
         <v>-5872803.10719111</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10240,19 @@
         <v>-5872803.10719111</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J291" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10281,19 @@
         <v>-5669445.46859111</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J292" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10322,19 @@
         <v>-5669395.46859111</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J293" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10363,19 @@
         <v>-5665104.82539111</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J294" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10404,19 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>12</v>
+      </c>
+      <c r="J295" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10445,19 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J296" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10489,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10525,19 @@
         <v>-6086463.57939111</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10917,19 @@
         <v>-6259709.38707369</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J308" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10958,19 @@
         <v>-6339840.306773691</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10999,19 @@
         <v>-6496027.979905096</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J310" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +11040,19 @@
         <v>-6569251.488105096</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +11081,19 @@
         <v>-6669149.931405096</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="J312" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +11122,19 @@
         <v>-6819791.869805097</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J313" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11163,19 @@
         <v>-6549324.306705097</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="J314" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11204,19 @@
         <v>-6542469.765005097</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J315" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11245,19 @@
         <v>-6586380.632805097</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J316" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11289,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11328,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11367,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11406,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11445,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11484,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11523,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11559,19 @@
         <v>-6659197.440705097</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J324" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11642,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11681,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11720,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11756,19 @@
         <v>-7776276.311205097</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J329" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11797,19 @@
         <v>-7777846.239005097</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J330" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11838,19 @@
         <v>-7750387.161805097</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J331" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11879,19 @@
         <v>-7593664.834105097</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J332" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11923,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11962,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12001,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12040,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12079,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12118,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +12157,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12196,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12235,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12274,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12313,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12349,19 @@
         <v>-6851724.97583746</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J344" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12393,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +12429,19 @@
         <v>-7009382.11193746</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J346" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +12470,19 @@
         <v>-7002556.28663746</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J347" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12511,19 @@
         <v>-6996151.56003746</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="J348" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12552,19 @@
         <v>-6889265.144237461</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="J349" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12593,19 @@
         <v>-6889265.144237461</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J350" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12634,19 @@
         <v>-7031907.234037461</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J351" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12007,9 +12681,13 @@
         <v>11.53</v>
       </c>
       <c r="J352" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="K352" t="inlineStr"/>
+        <v>11.26</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,15 +12716,17 @@
         <v>-6968166.88113746</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J353" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12077,11 +12757,13 @@
         <v>-6969290.67953746</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J354" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12116,11 +12798,13 @@
         <v>-6937003.01353746</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J355" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12155,11 +12839,13 @@
         <v>-7029092.46833746</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>11.74</v>
+      </c>
       <c r="J356" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12194,11 +12880,13 @@
         <v>-6905188.094337461</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J357" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12233,11 +12921,13 @@
         <v>-6905230.829437461</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J358" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12272,11 +12962,13 @@
         <v>-6643182.365537461</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J359" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12317,7 +13009,7 @@
         <v>11.83</v>
       </c>
       <c r="J360" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12352,11 +13044,13 @@
         <v>-6225197.12463746</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>11.84</v>
+      </c>
       <c r="J361" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12391,11 +13085,13 @@
         <v>-6086524.59033746</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>11.99</v>
+      </c>
       <c r="J362" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12434,7 +13130,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12469,11 +13165,13 @@
         <v>-5621761.029730264</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>12.07</v>
+      </c>
       <c r="J364" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12512,7 +13210,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12547,11 +13245,13 @@
         <v>-4643747.160487713</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J366" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12590,7 +13290,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12629,7 +13329,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12668,7 +13368,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12707,7 +13407,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12746,7 +13446,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12785,7 +13485,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12824,7 +13524,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12863,7 +13563,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12902,7 +13602,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12941,7 +13641,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12980,7 +13680,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13019,7 +13719,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13058,7 +13758,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13097,7 +13797,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13136,7 +13836,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13175,7 +13875,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13214,7 +13914,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13253,7 +13953,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13292,7 +13992,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13331,7 +14031,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13370,7 +14070,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13409,7 +14109,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13448,7 +14148,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13487,7 +14187,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13526,7 +14226,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13565,7 +14265,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13604,7 +14304,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13643,7 +14343,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13682,7 +14382,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13721,7 +14421,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13760,7 +14460,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13799,7 +14499,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13838,7 +14538,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13877,7 +14577,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13916,7 +14616,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13955,7 +14655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13994,7 +14694,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14033,7 +14733,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14072,7 +14772,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14111,7 +14811,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14150,7 +14850,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14189,7 +14889,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14228,7 +14928,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14267,7 +14967,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14306,7 +15006,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14345,7 +15045,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14384,7 +15084,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14423,7 +15123,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14462,7 +15162,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14501,7 +15201,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14540,7 +15240,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14579,7 +15279,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14618,7 +15318,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14657,7 +15357,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14696,7 +15396,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14735,7 +15435,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14774,7 +15474,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14813,7 +15513,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14852,7 +15552,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14891,7 +15591,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14930,7 +15630,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14969,7 +15669,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15008,7 +15708,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15047,7 +15747,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15086,7 +15786,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15125,7 +15825,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15164,7 +15864,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15203,7 +15903,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15242,7 +15942,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15281,7 +15981,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15320,7 +16020,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15359,7 +16059,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15398,7 +16098,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15437,7 +16137,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15476,7 +16176,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15515,7 +16215,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15554,7 +16254,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15593,7 +16293,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15632,7 +16332,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15671,7 +16371,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15710,7 +16410,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15749,7 +16449,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15788,7 +16488,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15827,7 +16527,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15866,7 +16566,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15905,7 +16605,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15944,7 +16644,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15983,7 +16683,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16022,7 +16722,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16061,7 +16761,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16100,7 +16800,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16139,7 +16839,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16174,13 +16874,11 @@
         <v>-5470810.985682668</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>11.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16215,13 +16913,11 @@
         <v>-5543988.594982668</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>11.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16256,13 +16952,11 @@
         <v>-5543943.468582667</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16297,13 +16991,11 @@
         <v>-5354032.978482667</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16338,13 +17030,11 @@
         <v>-4756866.945682667</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16383,7 +17073,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16422,7 +17112,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16461,7 +17151,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16500,7 +17190,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16539,7 +17229,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16578,7 +17268,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16617,7 +17307,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16656,7 +17346,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16695,7 +17385,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
